--- a/data/trans_camb/P20B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>16.96626900906869</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.094436500769375</v>
+        <v>1.09443650076938</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.738120563590279</v>
@@ -664,7 +664,7 @@
         <v>12.72232970495859</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.358611714352096</v>
+        <v>5.35861171435209</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-27.2002435112487</v>
+        <v>-26.04287834215647</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.092398131412608</v>
+        <v>-14.454584954957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-24.83180949205708</v>
+        <v>-27.00535777789833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.78224873299762</v>
+        <v>-13.34067741564692</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.70698673201418</v>
+        <v>-11.58668122286148</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.699011920398142</v>
+        <v>-10.5855788682811</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-12.78289665005994</v>
+        <v>-12.18410118614695</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.078736359639952</v>
+        <v>-2.530964799625227</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.568452100842897</v>
+        <v>-8.505641395453354</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.50481603988854</v>
+        <v>25.53159183085663</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>44.12162586920135</v>
+        <v>41.09239797592694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.49207693176707</v>
+        <v>25.85786498496492</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.86299225394633</v>
+        <v>18.00796210808113</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>24.43581680807815</v>
+        <v>24.25020263210508</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.70723716895603</v>
+        <v>22.55646324136615</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.98811158147526</v>
+        <v>14.94953995951719</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.55942399765862</v>
+        <v>27.38634372555481</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.17973002737229</v>
+        <v>19.45736885241589</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5041553096008153</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.03252135001448411</v>
+        <v>0.03252135001448427</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07384265564317399</v>
@@ -769,7 +769,7 @@
         <v>0.4846846727626381</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.204147905726771</v>
+        <v>0.2041479057267708</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5204505578943995</v>
+        <v>-0.5189451940196973</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1993927815922618</v>
+        <v>-0.2817762413400627</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4918692213519416</v>
+        <v>-0.5180502791403354</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4328828158490827</v>
+        <v>-0.4110883439219258</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3838983315216467</v>
+        <v>-0.3856338022342969</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3426629769734844</v>
+        <v>-0.3491292453451124</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3683788591668159</v>
+        <v>-0.3637758467796531</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.103623609986451</v>
+        <v>-0.08610745610640738</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2758492760791477</v>
+        <v>-0.251358202266324</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.707530175449456</v>
+        <v>1.681506131934736</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.24453151304929</v>
+        <v>2.451041554254418</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.685362183971751</v>
+        <v>1.726174791276342</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.326996771814408</v>
+        <v>1.274026224469222</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.717667469319161</v>
+        <v>1.640406702748384</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.577107654676695</v>
+        <v>1.515153166104478</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7563764738600713</v>
+        <v>0.8176522831489555</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.420306279606182</v>
+        <v>1.462799108042827</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.061905194337624</v>
+        <v>1.001367130159338</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>5.96743645423915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.770121657344376</v>
+        <v>7.770121657344364</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>14.22755284470633</v>
@@ -869,7 +869,7 @@
         <v>6.685489419428298</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.667509988600338</v>
+        <v>8.667509988600344</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>11.00170474895145</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.83349380984266</v>
+        <v>-12.36054043099151</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.19263936721291</v>
+        <v>-13.76489865917846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.81027370125158</v>
+        <v>-11.0458788416029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.743810212719946</v>
+        <v>1.804481192770155</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.614672532892334</v>
+        <v>-5.529461233257853</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.942069154516458</v>
+        <v>-3.218002031621067</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2409180520745704</v>
+        <v>1.763465068807435</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.628581781794792</v>
+        <v>-3.593105028952371</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.024250941137817</v>
+        <v>-1.434878875761206</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.42884922299399</v>
+        <v>21.69630857501298</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.60687558824053</v>
+        <v>23.62801107600228</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25.69963860568905</v>
+        <v>26.06064257096315</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.78193012526404</v>
+        <v>26.68050178679777</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>20.53996089067427</v>
+        <v>20.06392190099332</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.99228844913503</v>
+        <v>25.93931864350449</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>20.75694629982338</v>
+        <v>21.80079987009143</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.88558443999905</v>
+        <v>17.10367072452487</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.45273280555933</v>
+        <v>20.79864950555395</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.285700613928737</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3720070661543902</v>
+        <v>0.3720070661543897</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.053930226298528</v>
@@ -974,7 +974,7 @@
         <v>0.4952390234386733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6420605752400466</v>
+        <v>0.642060575240047</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6899474632258745</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4039610991727201</v>
+        <v>-0.4685103681642753</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4459984678213043</v>
+        <v>-0.4766957360710323</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3798098745135574</v>
+        <v>-0.3861803134548978</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08015494373277644</v>
+        <v>0.04677058928441558</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2810464462800452</v>
+        <v>-0.3262873227232634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2024563289722562</v>
+        <v>-0.2147755390673444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01374570777581903</v>
+        <v>0.04111985943005952</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.186448233402779</v>
+        <v>-0.2050583678187212</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07036605378102025</v>
+        <v>-0.08177002219469184</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.16464536493931</v>
+        <v>1.864364258690545</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.271651370095388</v>
+        <v>2.224202725833684</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.439649369668485</v>
+        <v>2.339843188398336</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.339589800833989</v>
+        <v>3.488672753212234</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.720928869753491</v>
+        <v>2.78108717452488</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.91241709057076</v>
+        <v>3.455106542890341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.006367023474613</v>
+        <v>2.105483210282692</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.520446704878069</v>
+        <v>1.492532377250223</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.860581415671581</v>
+        <v>1.87450218382563</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>11.77795818231319</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18.1443429319763</v>
+        <v>18.14434293197631</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-6.116266407901233</v>
@@ -1083,7 +1083,7 @@
         <v>-3.948549606956014</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-10.59177468105071</v>
+        <v>-10.5917746810507</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.6282162541535241</v>
@@ -1092,7 +1092,7 @@
         <v>2.070057623867272</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.617885699489702</v>
+        <v>1.61788569948968</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.605528323886487</v>
+        <v>-11.60796210188068</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.07596413369834</v>
+        <v>-10.39191484406848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.17672743442316</v>
+        <v>-4.308064831315905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-22.74725208157966</v>
+        <v>-22.69798098133796</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-21.18400064891726</v>
+        <v>-20.96515544983894</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-25.13181187418591</v>
+        <v>-26.12897864429759</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-11.54291311318486</v>
+        <v>-11.38379548001834</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-11.02082677492867</v>
+        <v>-12.09013806831203</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.69638775009353</v>
+        <v>-11.36929420947143</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>31.97867815616377</v>
+        <v>29.78405070546227</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>36.25473361086798</v>
+        <v>34.29014931535888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37.68620765197469</v>
+        <v>38.80028389973692</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.079988676349975</v>
+        <v>8.793697937042525</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.86638578698942</v>
+        <v>12.64057029825215</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.520032285022888</v>
+        <v>5.353938688920193</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.69618632716991</v>
+        <v>12.29509561409288</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.1104752982277</v>
+        <v>14.66584341546677</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.20087811183551</v>
+        <v>15.07780464206079</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5241092825621304</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.8074080761230611</v>
+        <v>0.8074080761230619</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2105252399652405</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1359112403026141</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3645746862015967</v>
+        <v>-0.3645746862015963</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.02375683828706351</v>
@@ -1197,7 +1197,7 @@
         <v>0.07828199905680813</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.06118251267076652</v>
+        <v>0.06118251267076568</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3582384705489162</v>
+        <v>-0.3735201070890569</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3545386889338887</v>
+        <v>-0.3591086158151695</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2041075448429081</v>
+        <v>-0.188297037835943</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5967065711750026</v>
+        <v>-0.6164364520212029</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5970581013225241</v>
+        <v>-0.5665852995154902</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6828328576736804</v>
+        <v>-0.6691711605450835</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3562646459641421</v>
+        <v>-0.356298570054573</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3538798282411367</v>
+        <v>-0.366855826553791</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3462384996189143</v>
+        <v>-0.3442950040971698</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.764306125940788</v>
+        <v>2.404934517321877</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.210140539369352</v>
+        <v>2.620686791521401</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.839134031991059</v>
+        <v>3.114562275009068</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4588527741642829</v>
+        <v>0.4157135312162327</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5781197236792462</v>
+        <v>0.6158096091596705</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2227008688030727</v>
+        <v>0.3100508088930492</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7055830777314166</v>
+        <v>0.6132818304030906</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7161995601027238</v>
+        <v>0.7178825658535183</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8052804227528264</v>
+        <v>0.7374932928731683</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>6.832928711573172</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.638337820110984</v>
+        <v>6.638337820110979</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.459114677160731</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-19.68592294110769</v>
+        <v>-21.24426639674869</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-23.43026405539884</v>
+        <v>-23.0211043842171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.67832709060846</v>
+        <v>-18.17073993283877</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.172127084560438</v>
+        <v>-8.548539368643349</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.542185700276402</v>
+        <v>-6.23323196879761</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.483263183067761</v>
+        <v>-6.025525459590864</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-8.911863468050653</v>
+        <v>-8.136336782760683</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.172352555274232</v>
+        <v>-9.211174221958329</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.618754766175456</v>
+        <v>-5.1221116389265</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.76710097315285</v>
+        <v>14.71976866754355</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.56784860764781</v>
+        <v>13.8451453925441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.8700234415718</v>
+        <v>15.75935663918757</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.20033235442805</v>
+        <v>17.68438586640224</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>19.3926405748634</v>
+        <v>20.23377638069689</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.05992887919303</v>
+        <v>18.37728217045263</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.59859840905251</v>
+        <v>12.34277843989226</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.08978400938807</v>
+        <v>13.12975137046317</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.66260161575585</v>
+        <v>14.6539086687143</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.3839710336909139</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3730361521934645</v>
+        <v>0.3730361521934641</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.06358329329545653</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5064251517309323</v>
+        <v>-0.5154836305030143</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5663172711213137</v>
+        <v>-0.5731392662661217</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4054452583443027</v>
+        <v>-0.4295678766144135</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3316400882079281</v>
+        <v>-0.3406391841131457</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.319198168720617</v>
+        <v>-0.2678849365501042</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.28284688251484</v>
+        <v>-0.2408037416151297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3251318984031569</v>
+        <v>-0.2935445053838251</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3080142360747511</v>
+        <v>-0.3227474913768155</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1913877200407145</v>
+        <v>-0.1859063054106284</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7507555981657054</v>
+        <v>0.739425600795382</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.722067394495749</v>
+        <v>0.7155963529741778</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8744011693879056</v>
+        <v>0.7381194134848336</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.539871218198042</v>
+        <v>1.56294659980704</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.67758249002687</v>
+        <v>1.923786405540448</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.866266215750943</v>
+        <v>1.803266141586997</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6716103936820447</v>
+        <v>0.7084576234262913</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6907116724488404</v>
+        <v>0.7660731396850353</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8146431183858377</v>
+        <v>0.8814904272959881</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>4.160720771464726</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.141842024295754</v>
+        <v>3.141842024295757</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.241689939871918</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.519956433010711</v>
+        <v>-7.365272657010223</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.467336721336695</v>
+        <v>-2.809655200226703</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.768840903794099</v>
+        <v>-3.292083817605517</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.579037799094502</v>
+        <v>-2.593775447396851</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.761665725750266</v>
+        <v>-2.600028479523741</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.004231655997832</v>
+        <v>-4.800924277549559</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.273630972154484</v>
+        <v>-1.210449698494341</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.5961020339376671</v>
+        <v>-0.2761157329002042</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5411140628489298</v>
+        <v>-0.07253495610983988</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.32603901859572</v>
+        <v>13.26516280079561</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>18.31903139319286</v>
+        <v>18.85680690457307</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.21207928626198</v>
+        <v>17.43621845429179</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.12431365962119</v>
+        <v>11.2661378996574</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.13913561957914</v>
+        <v>11.52335621393874</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.12934961433205</v>
+        <v>9.984632423801845</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.10545496002653</v>
+        <v>9.788536151379361</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.97075156888943</v>
+        <v>11.76053322916009</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.39007677037086</v>
+        <v>11.35286708398112</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.2060252675890086</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1555737285273417</v>
+        <v>0.1555737285273419</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1900820405732848</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2092520417716738</v>
+        <v>-0.2291610811948952</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09753916744173521</v>
+        <v>-0.09047452642928736</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08338674930878</v>
+        <v>-0.1088861315725277</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1046289716752476</v>
+        <v>-0.1120062622001728</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1200202004725225</v>
+        <v>-0.1160266358785764</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1672292327582431</v>
+        <v>-0.1847984524491625</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05452344200615504</v>
+        <v>-0.0499725645940675</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.03190832015305754</v>
+        <v>-0.01099213933046863</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.01966829401652957</v>
+        <v>-0.002670691343661478</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6377191044614668</v>
+        <v>0.6660712217176924</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9046291238919448</v>
+        <v>0.9485104577397943</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.869369663156829</v>
+        <v>0.8623660454428105</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6619539312840353</v>
+        <v>0.6629696625020565</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7519315696089859</v>
+        <v>0.7090446874794741</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.634052372443038</v>
+        <v>0.5801248619323671</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5329650915387664</v>
+        <v>0.5057944138274129</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6366073441718187</v>
+        <v>0.6143610789352133</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5834166708714712</v>
+        <v>0.5852971855013593</v>
       </c>
     </row>
     <row r="34">
